--- a/report_folder/report_4.3.a_qw.xlsx
+++ b/report_folder/report_4.3.a_qw.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>54.5% der Karten</t>
+          <t>45.8% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(50.0%)</t>
+          <t>(29.2%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lucia Irene Trepp</t>
+          <t>Paul Mense</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aktion Sodis Bot</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
@@ -4586,8 +4586,13 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Laura Coordt</t>
+        </is>
+      </c>
       <c r="C39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4595,37 +4600,47 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lucia Irene Trepp</t>
+          <t>Paul Mense</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Theresa Rinnert</t>
+        </is>
+      </c>
+      <c r="F42" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Laura Coordt</t>
+        </is>
+      </c>
       <c r="F43" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4654,7 +4669,7 @@
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -4683,7 +4698,7 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Aktion Sodis Bot</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4699,8 +4714,13 @@
       <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Chris Kneip</t>
+        </is>
+      </c>
       <c r="F51" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4712,13 +4732,23 @@
       <c r="C52" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Paul Mense</t>
+        </is>
+      </c>
       <c r="F52" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Aktion Sodis Bot</t>
+        </is>
+      </c>
       <c r="F53" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4745,7 +4775,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4753,7 +4783,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -4771,7 +4801,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -4817,7 +4847,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4825,7 +4855,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -4835,10 +4865,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Lucia Irene Trepp</t>
+        </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4851,8 +4886,13 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Paul Mense</t>
+        </is>
+      </c>
       <c r="G72" s="35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4862,10 +4902,15 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Laura Coordt</t>
+        </is>
       </c>
       <c r="G73" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">

--- a/report_folder/report_4.3.a_qw.xlsx
+++ b/report_folder/report_4.3.a_qw.xlsx
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>45.8% der Karten</t>
+          <t>41.7% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Anstellung Techniker (Stichwort: Tara)</t>
+          <t>Aufbereitung der Daten aus Bolivien</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Absprache Projektorganisation ⭐️</t>
+          <t>Agenda Monatsmeeting FS 💩</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Tätigkeitenbericht Juni - August 💩</t>
+          <t>Vortrag Qhari Warmi 💩</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Aufbereitung der Daten aus Bolivien</t>
+          <t>Dokument zum Informationsaustausch vor Monatsmeetings</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Agenda Monatsmeeting FS 💩</t>
+          <t>Workshop langfristige Ziele ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(29.2%)</t>
+          <t>(16.7%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -4742,13 +4742,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Aktion Sodis Bot</t>
-        </is>
-      </c>
       <c r="F53" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4775,7 +4770,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4783,7 +4778,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -4801,7 +4796,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -4902,7 +4897,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>

--- a/report_folder/report_4.3.a_qw.xlsx
+++ b/report_folder/report_4.3.a_qw.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>41.7% der Karten</t>
+          <t>25.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Dokument zum Informationsaustausch vor Monatsmeetings</t>
+          <t>Aufgaben für Langeweile 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Workshop langfristige Ziele ⭐️</t>
+          <t>Dokument zum Informationsaustausch vor Monatsmeetings</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(16.7%)</t>
+          <t>(25.0%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Paul Mense</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
@@ -4586,13 +4586,8 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Laura Coordt</t>
-        </is>
-      </c>
       <c r="C39" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4600,7 +4595,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -4616,31 +4611,21 @@
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Paul Mense</t>
+          <t>Theresa Rinnert</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Theresa Rinnert</t>
-        </is>
-      </c>
       <c r="F42" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Laura Coordt</t>
-        </is>
-      </c>
       <c r="F43" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4665,11 +4650,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4680,7 +4665,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lucia Irene Trepp</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
@@ -4698,7 +4683,7 @@
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>Lucia Irene Trepp</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4716,7 +4701,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Lucia Irene Trepp</t>
         </is>
       </c>
       <c r="F51" s="14" t="n">
@@ -4734,7 +4719,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Paul Mense</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="F52" s="14" t="n">
@@ -4770,7 +4755,7 @@
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4778,7 +4763,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -4788,7 +4773,7 @@
         </is>
       </c>
       <c r="B61" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4796,7 +4781,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -4842,7 +4827,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4850,7 +4835,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -4860,7 +4845,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4881,13 +4866,8 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Paul Mense</t>
-        </is>
-      </c>
       <c r="G72" s="35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4897,15 +4877,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Laura Coordt</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="G73" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
